--- a/biology/Zoologie/Erinnyis_obscura/Erinnyis_obscura.xlsx
+++ b/biology/Zoologie/Erinnyis_obscura/Erinnyis_obscura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erinnyis obscura est une espèce d'insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini, de la sous-tribu des Dilophonotina et du genre Erinnyis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 56 à 65 mm. Les femelles ont les ailes antérieures presque uniformément grises avec des taches noires sur la moitié basale et à proximité du centre de la cote, même si certains sont presque tous noirs. La face supérieure de l'aile antérieure du mâle est gris pâle avec des taches noires et une ligne noire au centre allant de la base à environ trois quarts de la longueur de l'aile. Dans les deux sexes, le dessus des ailes postérieures est orange avec une bordure noire étroite.
 			Face dorsale du mâle MHNT
@@ -546,9 +560,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves se développement sur Philibertia heterophylla, Philibertia viminalis, Cynanchum palustre[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves se développement sur Philibertia heterophylla, Philibertia viminalis, Cynanchum palustre.
 </t>
         </is>
       </c>
@@ -577,20 +593,90 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Erinnyis obscura a été décrite par l'entomologiste danois Johan Christian Fabricius, en 1775[2], sous le nom initial de Sphinx obscura.
-Synonymie
-Sphinx obscura (Fabricius, 1775) Protonyme
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Erinnyis obscura a été décrite par l'entomologiste danois Johan Christian Fabricius, en 1775, sous le nom initial de Sphinx obscura.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erinnyis_obscura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erinnyis_obscura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sphinx obscura (Fabricius, 1775) Protonyme
 Sphinx rustica (Schaller, 1788)
-Erinnyis stheno Geyer, 1829 [3]
+Erinnyis stheno Geyer, 1829 
 Erinnyis stheno Geyer, 1829
-Erinnyis cinerosa Grote &amp; Robinson, 1865[4]
-Anceryx rhaebus Boisduval, 1870[5]
-Dilophonota rhaebus Godman &amp; Salvin, 1881 [6]
-Dilophonota obscura Godman &amp; Salvin, 1881
-Taxinomie
-Liste des sous-espèces
+Erinnyis cinerosa Grote &amp; Robinson, 1865
+Anceryx rhaebus Boisduval, 1870
+Dilophonota rhaebus Godman &amp; Salvin, 1881 
+Dilophonota obscura Godman &amp; Salvin, 1881</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erinnyis_obscura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erinnyis_obscura</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des sous-espèces
 Erinnyis obscura obscura (Plaines tropicales et subtropicales de l'Uruguay à l'ouest de la Bolivie et de l'Argentine et au nord par l'Amérique centrale, du Mexique et des Antilles en Floride, le Mississippi, le Texas, le Nouveau-Mexique, en Arizona et en Californie du Sud. Strays enregistrée jusqu'à l'Arkansas, l'Oklahoma, le Nebraska, le Dakota du Nord et de la Pennsylvanie)
 Erinnyis obscura conformis Rothschild &amp; Jordan, 1903 (îles Galápagos)
 Erinnyis obscura socorroensis Clark, 1926 (Îles Revillagigedo)
